--- a/medicine/Enfance/Christophe_Merlin/Christophe_Merlin.xlsx
+++ b/medicine/Enfance/Christophe_Merlin/Christophe_Merlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Merlin, parfois surnommé Merlin, né le 5 avril 1966 à Neuilly-sur-Seine, est un illustrateur français, auteur de bande dessinée, de livres pour enfants et de carnets de voyage.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit, il rêvait d'être pilote de course[1]. Après un diplôme de dessinateur-maquettiste, il choisit de devenir illustrateur dans l'édition, la presse et la publicité. Durant ses études, il fait la rencontre d'un autre futur illustrateur, Jean-François Martin.
-Il a illustré de nombreux livres pour la jeunesse et est l'auteur de plusieurs ouvrages[2].
-Il collabore avec des publications telles que la revue XXI[3], Alpes magazine, Montagnes du monde, Terra Eco[4].
-Il vit à Montreuil[1], en région parisienne, dans un ancien garage[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit, il rêvait d'être pilote de course. Après un diplôme de dessinateur-maquettiste, il choisit de devenir illustrateur dans l'édition, la presse et la publicité. Durant ses études, il fait la rencontre d'un autre futur illustrateur, Jean-François Martin.
+Il a illustré de nombreux livres pour la jeunesse et est l'auteur de plusieurs ouvrages.
+Il collabore avec des publications telles que la revue XXI, Alpes magazine, Montagnes du monde, Terra Eco.
+Il vit à Montreuil, en région parisienne, dans un ancien garage.
 </t>
         </is>
       </c>
@@ -547,11 +561,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Ameur des arcades, Syros jeunesse, 1994, texte de Mouloud Mammeri
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ameur des arcades, Syros jeunesse, 1994, texte de Mouloud Mammeri
 Tu as perdu, Moustachat !, Nathan, 1995
 Moi, Ferdinand, quand j'étais Jaguar Féroce, Nathan, 1996, texte de René Gouichoux
-L'Histoire de Monsieur Ours qui pue des pieds[6], Albin Michel, 1998
+L'Histoire de Monsieur Ours qui pue des pieds, Albin Michel, 1998
 Cette histoire de cochons n'est pas un conte de fées, Albin Michel, 1998
 La Maternelle, Albin Michel jeunesse, 1999
 Le Mouton, Albin Michel jeunesse, 1999
@@ -582,61 +601,199 @@
 Qui des trois est le plus gentil ? La fée, la princesse ou le doudou ?, Éd. le Baron perché, 2013, texte de Christine Beigel
 Qui des trois est le plus méchant ? L’ogre, la sorcière ou le pirate ?, Éd. le Baron perché, 2013, texte de Christine Beigel
 L'Âme des samouraïs, Actes Sud junior, 2015, texte de Géraldine Maincent
-Le Livre du feu, texte de Cécile Benoist, Actes Sud junior, 2021
-Bandes dessinées
-Pied-au-plancher, Futuropolis, 1989
-La Goule, texte d'Agathe de la Boulaye, Casterman, 2005[7]
+Le Livre du feu, texte de Cécile Benoist, Actes Sud junior, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pied-au-plancher, Futuropolis, 1989
+La Goule, texte d'Agathe de la Boulaye, Casterman, 2005
 Nürburgring 57, Glénat, 2012
 Renault sans limites, Glénat, 2013
 Lonely Betty, d'après le roman de Joseph Incardona, Sarbacane, 2014
 La Ballade de Sean Hopper, d’après le roman de Martine Pouchain, Sarbacane, 2016
-Le Rêveur, avec Muriel Bloch, éditions Thierry Magnier, 2016
-Carnets de voyage
-Bénarès, carnet d'un voyage indien, Glénat, 2002, texte de Sandrine Balleydier
+Le Rêveur, avec Muriel Bloch, éditions Thierry Magnier, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carnets de voyage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bénarès, carnet d'un voyage indien, Glénat, 2002, texte de Sandrine Balleydier
 Saint-Louis du Sénégal, Albin Michel, 2004, Grand prix du carnet de voyage 2004, 5e Biennale du carnet de voyage de Clermont-Ferrand
 Istanbul et les Stambouliotes, Glénat, 2002, texte d'Ariane Bonzon
-Madagascar, chronique du Capricorne, Albin Michel, 2007
-Affiches
-6ème biennale du carnet de voyage de Clermont-Ferrand, 2005[8]
-8ème salon du livre d'aventures Africa.lire, Vernon, 2010[9]
-Festival BD de Guyancourt, 2013[10]
+Madagascar, chronique du Capricorne, Albin Michel, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affiches</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6ème biennale du carnet de voyage de Clermont-Ferrand, 2005
+8ème salon du livre d'aventures Africa.lire, Vernon, 2010
+Festival BD de Guyancourt, 2013
 Folm rallye de Léguevin, éditions 2014, 2015
-5es soirées du cinéma alpin, Chambéry, 2018
-Expositions
-2008-2009, 20 novembre-17 janvier, Le Voyage autrement, un Saint-Gratien fantasmé, centre culturel, Saint-Gratien
-2009, 29 octobre-2 décembre, Plein Gaz, exposition d'œuvres de Christophe Merlin, galerie Jeanne Robillard, Paris[11]
-2013, 19 janvier-7 avril, No Limit !, scénographie et de dessins de Christophe Merlin, Atelier Renault, Paris[12]
-2018, 26 février-16 mars, Le Grand Dédé et sa petite auto, exposition de dessins originaux de Christophe Merlin, dans le cadre du festival PolarLens, médiathèque Robert-Cousin, Lens[13]</t>
+5es soirées du cinéma alpin, Chambéry, 2018</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Christophe_Merlin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christophe_Merlin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008-2009, 20 novembre-17 janvier, Le Voyage autrement, un Saint-Gratien fantasmé, centre culturel, Saint-Gratien
+2009, 29 octobre-2 décembre, Plein Gaz, exposition d'œuvres de Christophe Merlin, galerie Jeanne Robillard, Paris
+2013, 19 janvier-7 avril, No Limit !, scénographie et de dessins de Christophe Merlin, Atelier Renault, Paris
+2018, 26 février-16 mars, Le Grand Dédé et sa petite auto, exposition de dessins originaux de Christophe Merlin, dans le cadre du festival PolarLens, médiathèque Robert-Cousin, Lens</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Merlin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sélection Prix Sorcières 2022[14] Catégorie Carrément sorcières non fiction, pour Le livre du feu, texte de Cécile Benoist</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sélection Prix Sorcières 2022 Catégorie Carrément sorcières non fiction, pour Le livre du feu, texte de Cécile Benoist</t>
         </is>
       </c>
     </row>
